--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.270036666666666</v>
+        <v>0.06520933333333333</v>
       </c>
       <c r="H2">
-        <v>9.81011</v>
+        <v>0.195628</v>
       </c>
       <c r="I2">
-        <v>0.359406393324744</v>
+        <v>0.007116089623850998</v>
       </c>
       <c r="J2">
-        <v>0.3594063933247441</v>
+        <v>0.007116089623850999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N2">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O2">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P2">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q2">
-        <v>77.16050677475778</v>
+        <v>1.838869856294222</v>
       </c>
       <c r="R2">
-        <v>694.44456097282</v>
+        <v>16.549828706648</v>
       </c>
       <c r="S2">
-        <v>0.2514668889778943</v>
+        <v>0.005235611648260731</v>
       </c>
       <c r="T2">
-        <v>0.2514668889778943</v>
+        <v>0.00523561164826073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.270036666666666</v>
+        <v>0.06520933333333333</v>
       </c>
       <c r="H3">
-        <v>9.81011</v>
+        <v>0.195628</v>
       </c>
       <c r="I3">
-        <v>0.359406393324744</v>
+        <v>0.007116089623850998</v>
       </c>
       <c r="J3">
-        <v>0.3594063933247441</v>
+        <v>0.007116089623850999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>23.334077</v>
       </c>
       <c r="O3">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P3">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q3">
-        <v>25.43442912427444</v>
+        <v>0.5071998683728889</v>
       </c>
       <c r="R3">
-        <v>228.90986211847</v>
+        <v>4.564798815356</v>
       </c>
       <c r="S3">
-        <v>0.08289106736274569</v>
+        <v>0.001444094333136168</v>
       </c>
       <c r="T3">
-        <v>0.08289106736274571</v>
+        <v>0.001444094333136168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.270036666666666</v>
+        <v>0.06520933333333333</v>
       </c>
       <c r="H4">
-        <v>9.81011</v>
+        <v>0.195628</v>
       </c>
       <c r="I4">
-        <v>0.359406393324744</v>
+        <v>0.007116089623850998</v>
       </c>
       <c r="J4">
-        <v>0.3594063933247441</v>
+        <v>0.007116089623850999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.350402666666666</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N4">
-        <v>7.051207999999999</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O4">
-        <v>0.06969391042933215</v>
+        <v>0.0613235169202299</v>
       </c>
       <c r="P4">
-        <v>0.06969391042933216</v>
+        <v>0.06132351692022989</v>
       </c>
       <c r="Q4">
-        <v>7.685902901431109</v>
+        <v>0.1532681909582222</v>
       </c>
       <c r="R4">
-        <v>69.17312611287998</v>
+        <v>1.379413718624</v>
       </c>
       <c r="S4">
-        <v>0.02504843698410403</v>
+        <v>0.0004363836424540991</v>
       </c>
       <c r="T4">
-        <v>0.02504843698410404</v>
+        <v>0.000436383642454099</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.828401</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H5">
-        <v>17.485203</v>
+        <v>9.81011</v>
       </c>
       <c r="I5">
-        <v>0.6405936066752559</v>
+        <v>0.3568488252184601</v>
       </c>
       <c r="J5">
-        <v>0.640593606675256</v>
+        <v>0.3568488252184602</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N5">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O5">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P5">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q5">
-        <v>137.5282361298207</v>
+        <v>92.21336192125111</v>
       </c>
       <c r="R5">
-        <v>1237.754125168386</v>
+        <v>829.92025729126</v>
       </c>
       <c r="S5">
-        <v>0.4482059428035918</v>
+        <v>0.2625489510025102</v>
       </c>
       <c r="T5">
-        <v>0.4482059428035919</v>
+        <v>0.2625489510025103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.828401</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H6">
-        <v>17.485203</v>
+        <v>9.81011</v>
       </c>
       <c r="I6">
-        <v>0.6405936066752559</v>
+        <v>0.3568488252184601</v>
       </c>
       <c r="J6">
-        <v>0.640593606675256</v>
+        <v>0.3568488252184602</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>23.334077</v>
       </c>
       <c r="O6">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P6">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q6">
-        <v>45.33345257362567</v>
+        <v>25.43442912427444</v>
       </c>
       <c r="R6">
-        <v>408.001073162631</v>
+        <v>228.90986211847</v>
       </c>
       <c r="S6">
-        <v>0.1477421904264359</v>
+        <v>0.07241664924470145</v>
       </c>
       <c r="T6">
-        <v>0.1477421904264359</v>
+        <v>0.07241664924470147</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.270036666666666</v>
+      </c>
+      <c r="H7">
+        <v>9.81011</v>
+      </c>
+      <c r="I7">
+        <v>0.3568488252184601</v>
+      </c>
+      <c r="J7">
+        <v>0.3568488252184602</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.350402666666667</v>
+      </c>
+      <c r="N7">
+        <v>7.051208000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.0613235169202299</v>
+      </c>
+      <c r="P7">
+        <v>0.06132351692022989</v>
+      </c>
+      <c r="Q7">
+        <v>7.685902901431112</v>
+      </c>
+      <c r="R7">
+        <v>69.17312611288001</v>
+      </c>
+      <c r="S7">
+        <v>0.0218832249712484</v>
+      </c>
+      <c r="T7">
+        <v>0.0218832249712484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.828401</v>
+      </c>
+      <c r="H8">
+        <v>17.485203</v>
+      </c>
+      <c r="I8">
+        <v>0.6360350851576888</v>
+      </c>
+      <c r="J8">
+        <v>0.6360350851576889</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>28.19948866666667</v>
+      </c>
+      <c r="N8">
+        <v>84.598466</v>
+      </c>
+      <c r="O8">
+        <v>0.7357427920402423</v>
+      </c>
+      <c r="P8">
+        <v>0.7357427920402422</v>
+      </c>
+      <c r="Q8">
+        <v>164.3579279442887</v>
+      </c>
+      <c r="R8">
+        <v>1479.221351498598</v>
+      </c>
+      <c r="S8">
+        <v>0.4679582293894712</v>
+      </c>
+      <c r="T8">
+        <v>0.4679582293894712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>5.828401</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>17.485203</v>
       </c>
-      <c r="I7">
-        <v>0.6405936066752559</v>
-      </c>
-      <c r="J7">
-        <v>0.640593606675256</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.350402666666666</v>
-      </c>
-      <c r="N7">
-        <v>7.051207999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.06969391042933215</v>
-      </c>
-      <c r="P7">
-        <v>0.06969391042933216</v>
-      </c>
-      <c r="Q7">
-        <v>13.69908925280266</v>
-      </c>
-      <c r="R7">
+      <c r="I9">
+        <v>0.6360350851576888</v>
+      </c>
+      <c r="J9">
+        <v>0.6360350851576889</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.778025666666667</v>
+      </c>
+      <c r="N9">
+        <v>23.334077</v>
+      </c>
+      <c r="O9">
+        <v>0.2029336910395279</v>
+      </c>
+      <c r="P9">
+        <v>0.2029336910395278</v>
+      </c>
+      <c r="Q9">
+        <v>45.33345257362567</v>
+      </c>
+      <c r="R9">
+        <v>408.001073162631</v>
+      </c>
+      <c r="S9">
+        <v>0.1290729474616902</v>
+      </c>
+      <c r="T9">
+        <v>0.1290729474616902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.828401</v>
+      </c>
+      <c r="H10">
+        <v>17.485203</v>
+      </c>
+      <c r="I10">
+        <v>0.6360350851576888</v>
+      </c>
+      <c r="J10">
+        <v>0.6360350851576889</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.350402666666667</v>
+      </c>
+      <c r="N10">
+        <v>7.051208000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.0613235169202299</v>
+      </c>
+      <c r="P10">
+        <v>0.06132351692022989</v>
+      </c>
+      <c r="Q10">
+        <v>13.69908925280267</v>
+      </c>
+      <c r="R10">
         <v>123.291803275224</v>
       </c>
-      <c r="S7">
-        <v>0.04464547344522812</v>
-      </c>
-      <c r="T7">
-        <v>0.04464547344522813</v>
+      <c r="S10">
+        <v>0.0390039083065274</v>
+      </c>
+      <c r="T10">
+        <v>0.03900390830652739</v>
       </c>
     </row>
   </sheetData>
